--- a/data/285_P_label_case.xlsx
+++ b/data/285_P_label_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:B140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,554 +448,1114 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.009349799999999998</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01965890799178318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0187</v>
+        <v>0.009349799999999998</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1082955994857423</v>
+        <v>0.01965890799178318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.028049</v>
+        <v>0.0187</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2058255373017932</v>
+        <v>0.1082955994857423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.037399</v>
+        <v>0.028049</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2414585510047784</v>
+        <v>0.2058255373017932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.047456</v>
+        <v>0.037399</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2329512353912638</v>
+        <v>0.2414585510047784</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.057512</v>
+        <v>0.047456</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2013031654246226</v>
+        <v>0.2329512353912638</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.067569</v>
+        <v>0.057512</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1676413685637965</v>
+        <v>0.2013031654246226</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.077625</v>
+        <v>0.067569</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1388271247416783</v>
+        <v>0.1676413685637965</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.088409</v>
+        <v>0.077625</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1139147531533155</v>
+        <v>0.1388271247416783</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.099192</v>
+        <v>0.088409</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09465407487349499</v>
+        <v>0.1139147531533155</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.10998</v>
+        <v>0.099192</v>
       </c>
       <c r="B12" t="n">
-        <v>0.08020059345053011</v>
+        <v>0.09465407487349499</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.12076</v>
+        <v>0.10998</v>
       </c>
       <c r="B13" t="n">
-        <v>0.06885854615452403</v>
+        <v>0.08020059345053011</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.13229</v>
+        <v>0.12076</v>
       </c>
       <c r="B14" t="n">
-        <v>0.05945595210429845</v>
+        <v>0.06885854615452403</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.14381</v>
+        <v>0.13229</v>
       </c>
       <c r="B15" t="n">
-        <v>0.05217957316655541</v>
+        <v>0.05945595210429845</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.15534</v>
+        <v>0.14381</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04659047115751757</v>
+        <v>0.05217957316655541</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.16686</v>
+        <v>0.15534</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04209659652521276</v>
+        <v>0.04659047115751757</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.17914</v>
+        <v>0.16686</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03819977104545027</v>
+        <v>0.04209659652521276</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.19141</v>
+        <v>0.17914</v>
       </c>
       <c r="B19" t="n">
-        <v>0.03512709525245052</v>
+        <v>0.03819977104545027</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.20369</v>
+        <v>0.19141</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03264318881569096</v>
+        <v>0.03512709525245052</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.21597</v>
+        <v>0.20369</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03050954020392136</v>
+        <v>0.03264318881569096</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.22899</v>
+        <v>0.21597</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02851490804182173</v>
+        <v>0.03050954020392136</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.24202</v>
+        <v>0.22899</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02681917820607486</v>
+        <v>0.02851490804182173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.25504</v>
+        <v>0.24202</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02533474768035015</v>
+        <v>0.02681917820607486</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.26807</v>
+        <v>0.25504</v>
       </c>
       <c r="B25" t="n">
-        <v>0.0239793796157361</v>
+        <v>0.02533474768035015</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.28184</v>
+        <v>0.26807</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0225449684873506</v>
+        <v>0.0239793796157361</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.29561</v>
+        <v>0.28184</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02123994011146033</v>
+        <v>0.0225449684873506</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.30938</v>
+        <v>0.29561</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02003765917411852</v>
+        <v>0.02123994011146033</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.32314</v>
+        <v>0.30938</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01890545682670175</v>
+        <v>0.02003765917411852</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.33764</v>
+        <v>0.32314</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01769348988872153</v>
+        <v>0.01890545682670175</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.35213</v>
+        <v>0.33764</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01658094209058527</v>
+        <v>0.01769348988872153</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.36662</v>
+        <v>0.35213</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01559027869995355</v>
+        <v>0.01658094209058527</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.38111</v>
+        <v>0.36662</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01473964499204828</v>
+        <v>0.01559027869995355</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.3963</v>
+        <v>0.38111</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01391548106762527</v>
+        <v>0.01473964499204828</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.41148</v>
+        <v>0.3963</v>
       </c>
       <c r="B35" t="n">
-        <v>0.01318109014063215</v>
+        <v>0.01391548106762527</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.42667</v>
+        <v>0.41148</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01250342757645768</v>
+        <v>0.01318109014063215</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.44186</v>
+        <v>0.42667</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01185988743843318</v>
+        <v>0.01250342757645768</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.4577</v>
+        <v>0.44186</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01121264810889373</v>
+        <v>0.01185988743843318</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.47354</v>
+        <v>0.4577</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0106050646601792</v>
+        <v>0.01121264810889373</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.48938</v>
+        <v>0.47354</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01003553859304927</v>
+        <v>0.0106050646601792</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.50522</v>
+        <v>0.48938</v>
       </c>
       <c r="B41" t="n">
-        <v>0.009505052636454139</v>
+        <v>0.01003553859304927</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.52167</v>
+        <v>0.50522</v>
       </c>
       <c r="B42" t="n">
-        <v>0.009009253153616094</v>
+        <v>0.009505052636454139</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.5381199999999999</v>
+        <v>0.52167</v>
       </c>
       <c r="B43" t="n">
-        <v>0.008563040336589544</v>
+        <v>0.009009253153616094</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.5545600000000001</v>
+        <v>0.5381199999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>0.008134359536683233</v>
+        <v>0.008563040336589544</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.57101</v>
+        <v>0.5545600000000001</v>
       </c>
       <c r="B45" t="n">
-        <v>0.007697258115710544</v>
+        <v>0.008134359536683233</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.588</v>
+        <v>0.57101</v>
       </c>
       <c r="B46" t="n">
-        <v>0.007238233181525565</v>
+        <v>0.007697258115710544</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.6049899999999999</v>
+        <v>0.588</v>
       </c>
       <c r="B47" t="n">
-        <v>0.006777329241514078</v>
+        <v>0.007238233181525565</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.62197</v>
+        <v>0.6049899999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>0.006324002097829706</v>
+        <v>0.006777329241514078</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.62198</v>
+        <v>0.62197</v>
       </c>
       <c r="B49" t="n">
-        <v>0.00632570401141908</v>
+        <v>0.006324002097829706</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.6389600000000001</v>
+        <v>0.62198</v>
       </c>
       <c r="B50" t="n">
-        <v>0.005885502041789306</v>
+        <v>0.00632570401141908</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.65642</v>
+        <v>0.6389600000000001</v>
       </c>
       <c r="B51" t="n">
-        <v>0.005441199997291299</v>
+        <v>0.005885502041789306</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.67388</v>
+        <v>0.65642</v>
       </c>
       <c r="B52" t="n">
-        <v>0.005007983876067101</v>
+        <v>0.005441199997291299</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.69134</v>
+        <v>0.67388</v>
       </c>
       <c r="B53" t="n">
-        <v>0.00458322117268972</v>
+        <v>0.005007983876067101</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.7088</v>
+        <v>0.69134</v>
       </c>
       <c r="B54" t="n">
-        <v>0.004165049407934931</v>
+        <v>0.00458322117268972</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.72665</v>
+        <v>0.7088</v>
       </c>
       <c r="B55" t="n">
-        <v>0.003735805733627094</v>
+        <v>0.004165049407934931</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.7445000000000001</v>
+        <v>0.72665</v>
       </c>
       <c r="B56" t="n">
-        <v>0.003314591538627464</v>
+        <v>0.003735805733627094</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.76234</v>
+        <v>0.7445000000000001</v>
       </c>
       <c r="B57" t="n">
-        <v>0.002907269930732164</v>
+        <v>0.003314591538627464</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.76235</v>
+        <v>0.76234</v>
       </c>
       <c r="B58" t="n">
-        <v>0.002906197156161227</v>
+        <v>0.002907269930732164</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.7801899999999999</v>
+        <v>0.76235</v>
       </c>
       <c r="B59" t="n">
-        <v>0.002514911052816364</v>
+        <v>0.002906197156161227</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.7983399999999999</v>
+        <v>0.7801899999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>0.002132414454071074</v>
+        <v>0.002514911052816364</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8164899999999999</v>
+        <v>0.7983399999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>0.001771808225766272</v>
+        <v>0.002132414454071074</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.8346399999999999</v>
+        <v>0.8164899999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>0.00143903885770388</v>
+        <v>0.001771808225766272</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.85278</v>
+        <v>0.8346399999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>0.001139499869687533</v>
+        <v>0.00143903885770388</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.87113</v>
+        <v>0.85278</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0008685222694348433</v>
+        <v>0.001139499869687533</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8894799999999999</v>
+        <v>0.87113</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0006336637491419756</v>
+        <v>0.0008685222694348433</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.90784</v>
+        <v>0.8894799999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>0.0004354628763482624</v>
+        <v>0.0006336637491419756</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.92619</v>
+        <v>0.90784</v>
       </c>
       <c r="B67" t="n">
-        <v>0.0002740387912534443</v>
+        <v>0.0004354628763482624</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9446399999999999</v>
+        <v>0.92619</v>
       </c>
       <c r="B68" t="n">
-        <v>0.000146872023673753</v>
+        <v>0.0002740387912534443</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.96309</v>
+        <v>0.9446399999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>5.748189847966823e-05</v>
+        <v>0.000146872023673753</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
+        <v>0.96309</v>
+      </c>
+      <c r="B70" t="n">
+        <v>5.748189847966823e-05</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
         <v>0.98155</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B71" t="n">
         <v>6.354608511745294e-06</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" t="n">
+        <v>-5.765905315285367e-06</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>1.0185</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.244448308704135e-05</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>1.0369</v>
+      </c>
+      <c r="B74" t="n">
+        <v>9.280652746322031e-05</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>1.0554</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.0002048460539572652</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>1.0738</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.0003545730276478157</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>1.0922</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.0005350493192512801</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1.1105</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0007404306334109732</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>1.1289</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.0009694016345195949</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1.1472</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.001223353528162644</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1.1654</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.001499280951811026</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1.1835</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.001800177000507391</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1.2017</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.00212285384043335</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1.2198</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.002462762303834189</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1.2377</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.002815993858409473</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1.2555</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.003174586342951649</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1.2734</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.003545621450661005</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1.2912</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.003940950992483423</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1.3087</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.004353355925229071</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1.3261</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.004793816417974968</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1.3436</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.005256624444760669</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1.361</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.005734134336867105</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1.378</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.00619312587949084</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.00667526809078972</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1.412</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.00718459441783208</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1.429</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.007726658560110641</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1.4454</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.008273781159757859</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1.4619</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.008871115607368672</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1.4783</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.009490649064091998</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.4948</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.01010142768194032</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1.5106</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.01067039798603524</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1.5265</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.01125629716199056</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.5423</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.01186355263697593</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1.5581</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.01249988217319955</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1.5733</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.01311226703203384</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1.5885</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.01380019511439204</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.6037</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.01456796900385663</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.6189</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.01541827773885741</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.6334</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.01619690602295564</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1.6479</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.01701869128673443</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1.6624</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.01788276797652861</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1.6769</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.01879389430112844</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1.6906</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.0195774673916788</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1.7044</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.02043914883230154</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1.7182</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.02144492678356094</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.7319</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.02265799395218559</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.02393208918383966</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.02542496808827945</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1.771</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.02716762909242153</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1.784</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.02920148303570673</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1.7963</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.03141233264233312</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1.8086</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.03406102331389282</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1.8209</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.03737346539961954</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1.8331</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.0415522190549671</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1.8447</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.0462882014262563</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1.8562</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.05202145299547571</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>1.8677</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.0592807198282945</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>1.8792</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.06846509769536462</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.07955316206841855</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>1.9008</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.09362930049033531</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>1.9116</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.1123254365532799</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>1.9224</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.1364512768344998</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>1.9324</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.164541123325148</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>1.9425</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.1971777122357992</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>1.9525</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.2282261611855033</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>1.9626</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.2376299020738554</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>1.972</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.2044581796393204</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>1.9813</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.1092748700206373</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>1.9907</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.02012895456605707</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>2</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
